--- a/data/001208.SZ-20210824.xlsx
+++ b/data/001208.SZ-20210824.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2294,6 +2294,48 @@
       </c>
       <c r="L44" t="n">
         <v>1214550.053</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001208.SZ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20210824</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.1039</v>
+      </c>
+      <c r="K45" t="n">
+        <v>689478.67</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1347592.731</v>
       </c>
     </row>
   </sheetData>
